--- a/Data_clean/MCAS/Estados_US/Edos_USA_2011/SOUTH_DAKOTA_2011.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2011/SOUTH_DAKOTA_2011.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Rincon De Romos</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -504,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -535,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -548,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Cuauhtemoc</t>
@@ -561,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Juarez</t>
@@ -574,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Namiquipa</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Santa Barbara</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -631,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Piedras Negras</t>
@@ -644,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Torreon</t>
@@ -657,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -688,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -701,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -732,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Cuencame</t>
@@ -745,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Gomez Palacio</t>
@@ -758,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Total</t>
@@ -789,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Leon</t>
@@ -802,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -833,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -846,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Coyuca De Catalan</t>
@@ -859,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Jose Azueta</t>
@@ -872,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Petatlan</t>
@@ -885,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Pilcaya</t>
@@ -898,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Tecpan De Galeana</t>
@@ -911,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Tlapehuala</t>
@@ -924,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Total</t>
@@ -955,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Atotonilco El Grande</t>
@@ -968,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -981,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Xochiatipan</t>
@@ -994,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1025,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Atotonilco El Alto</t>
@@ -1038,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -1051,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -1064,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1077,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Jesus Maria</t>
@@ -1090,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>San Diego De Alejandria</t>
@@ -1103,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -1116,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -1129,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Tepatitlan De Morelos</t>
@@ -1142,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Teuchitlan</t>
@@ -1155,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Tlajomulco De Zuñiga</t>
@@ -1168,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Tonala</t>
@@ -1181,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1212,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Nezahualcoyotl</t>
@@ -1225,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -1238,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -1251,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1282,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Jungapeo</t>
@@ -1295,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Purepero</t>
@@ -1308,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Tarimbaro</t>
@@ -1321,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1334,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Yurecuaro</t>
@@ -1347,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Zinapecuaro</t>
@@ -1360,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1391,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Puente De Ixtla</t>
@@ -1404,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -1417,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1448,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1479,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Oaxaca De Juarez</t>
@@ -1492,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Santa Cruz Tacache De Mina</t>
@@ -1505,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1536,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Cuetzalan Del Progreso</t>
@@ -1549,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Huitzilan De Serdan</t>
@@ -1562,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Tlatlauquitepec</t>
@@ -1575,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Zacatlan</t>
@@ -1588,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -1601,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1632,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>San Luis Potosi</t>
@@ -1645,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Villa De Arista</t>
@@ -1658,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -1671,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1702,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1733,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1764,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -1777,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1808,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1839,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>La Antigua</t>
@@ -1852,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Tecolutla</t>
@@ -1865,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -1878,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -1891,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -1904,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1935,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Total</t>
